--- a/results/mp/tinybert/corona/confidence/210/stop-words-topk-desired-masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-topk-desired-masking-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="94">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,37 +46,43 @@
     <t>crude</t>
   </si>
   <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>hell</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
     <t>shit</t>
   </si>
   <si>
-    <t>pressure</t>
+    <t>problem</t>
   </si>
   <si>
     <t>selfish</t>
@@ -85,12 +91,6 @@
     <t>anxiety</t>
   </si>
   <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
@@ -100,22 +100,34 @@
     <t>emergency</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>isolation</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>shortage</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>isolation</t>
-  </si>
-  <si>
-    <t>shortage</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>empty</t>
+    <t>fight</t>
   </si>
   <si>
     <t>stop</t>
@@ -130,27 +142,36 @@
     <t>interesting</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>special</t>
   </si>
   <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
@@ -160,43 +181,52 @@
     <t>safety</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>credit</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>healthy</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>clean</t>
   </si>
   <si>
     <t>join</t>
@@ -205,34 +235,37 @@
     <t>like</t>
   </si>
   <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>key</t>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>give</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>give</t>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>save</t>
   </si>
   <si>
     <t>increase</t>
@@ -241,19 +274,28 @@
     <t>alert</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>available</t>
-  </si>
-  <si>
-    <t>sure</t>
+    <t>online</t>
+  </si>
+  <si>
+    <t>new</t>
   </si>
   <si>
     <t>shopping</t>
   </si>
   <si>
-    <t>online</t>
+    <t>home</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
 </sst>
 </file>
@@ -611,7 +653,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,10 +661,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -701,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -751,16 +793,16 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K4">
-        <v>0.9782608695652174</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M4">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -772,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -780,13 +822,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9130434782608695</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -798,19 +840,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K5">
-        <v>0.9661016949152542</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="M5">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -822,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -830,13 +872,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8974358974358975</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C6">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D6">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -851,10 +893,10 @@
         <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K6">
-        <v>0.9574468085106383</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L6">
         <v>45</v>
@@ -872,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -880,13 +922,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.868421052631579</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="C7">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -898,19 +940,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K7">
-        <v>0.9444444444444444</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L7">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="M7">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -930,13 +972,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8648648648648649</v>
+        <v>0.868421052631579</v>
       </c>
       <c r="C8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -951,16 +993,16 @@
         <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K8">
-        <v>0.9017857142857143</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L8">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="M8">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -972,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1001,16 +1043,16 @@
         <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K9">
-        <v>0.8943661971830986</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L9">
-        <v>127</v>
+        <v>22</v>
       </c>
       <c r="M9">
-        <v>127</v>
+        <v>22</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1022,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1030,13 +1072,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8611111111111112</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="C10">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1048,19 +1090,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K10">
-        <v>0.8833333333333333</v>
+        <v>0.9084507042253521</v>
       </c>
       <c r="L10">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="M10">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1072,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1080,13 +1122,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8458904109589042</v>
+        <v>0.8424657534246576</v>
       </c>
       <c r="C11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1098,19 +1140,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K11">
-        <v>0.8828125</v>
+        <v>0.9017857142857143</v>
       </c>
       <c r="L11">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="M11">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1122,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1130,13 +1172,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8076923076923077</v>
+        <v>0.8378378378378378</v>
       </c>
       <c r="C12">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D12">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1148,19 +1190,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K12">
-        <v>0.8780487804878049</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="L12">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="M12">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1172,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1180,38 +1222,38 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="C13">
+        <v>21</v>
+      </c>
+      <c r="D13">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="L13">
         <v>24</v>
       </c>
-      <c r="D13">
+      <c r="M13">
         <v>24</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>6</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K13">
-        <v>0.8627450980392157</v>
-      </c>
-      <c r="L13">
-        <v>44</v>
-      </c>
-      <c r="M13">
-        <v>44</v>
-      </c>
       <c r="N13">
         <v>1</v>
       </c>
@@ -1222,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1230,13 +1272,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7435897435897436</v>
+        <v>0.8</v>
       </c>
       <c r="C14">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D14">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1248,19 +1290,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K14">
-        <v>0.8461538461538461</v>
+        <v>0.8828125</v>
       </c>
       <c r="L14">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="M14">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1272,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1280,13 +1322,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7037037037037037</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="C15">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D15">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1301,16 +1343,16 @@
         <v>8</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K15">
-        <v>0.8448275862068966</v>
+        <v>0.8780487804878049</v>
       </c>
       <c r="L15">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="M15">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1322,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1330,13 +1372,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6944444444444444</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="C16">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D16">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1348,19 +1390,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K16">
-        <v>0.84</v>
+        <v>0.8627450980392157</v>
       </c>
       <c r="L16">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M16">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1372,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1380,7 +1422,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6774193548387096</v>
+        <v>0.7</v>
       </c>
       <c r="C17">
         <v>21</v>
@@ -1398,19 +1440,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K17">
-        <v>0.839622641509434</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="L17">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="M17">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1422,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1430,13 +1472,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6774193548387096</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C18">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D18">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1448,19 +1490,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K18">
-        <v>0.8125</v>
+        <v>0.839622641509434</v>
       </c>
       <c r="L18">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="M18">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1472,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1480,13 +1522,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6756756756756757</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="C19">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D19">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1498,19 +1540,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K19">
-        <v>0.804177545691906</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L19">
-        <v>308</v>
+        <v>30</v>
       </c>
       <c r="M19">
-        <v>308</v>
+        <v>30</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1522,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>75</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1530,13 +1572,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5562015503875969</v>
+        <v>0.5910852713178295</v>
       </c>
       <c r="C20">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="D20">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1548,19 +1590,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K20">
-        <v>0.7936507936507936</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="L20">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="M20">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1572,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1580,13 +1622,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5234899328859061</v>
+        <v>0.5503355704697986</v>
       </c>
       <c r="C21">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D21">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1598,19 +1640,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K21">
-        <v>0.776595744680851</v>
+        <v>0.8125</v>
       </c>
       <c r="L21">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="M21">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1622,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1630,13 +1672,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4933333333333333</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="C22">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D22">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1648,19 +1690,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K22">
-        <v>0.7647058823529411</v>
+        <v>0.8093994778067886</v>
       </c>
       <c r="L22">
-        <v>26</v>
+        <v>310</v>
       </c>
       <c r="M22">
-        <v>26</v>
+        <v>310</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1672,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1680,13 +1722,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.417989417989418</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C23">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="D23">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1698,19 +1740,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>110</v>
+        <v>24</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K23">
-        <v>0.7291666666666666</v>
+        <v>0.7936507936507936</v>
       </c>
       <c r="L23">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="M23">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1730,13 +1772,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4117647058823529</v>
+        <v>0.5</v>
       </c>
       <c r="C24">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D24">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1748,13 +1790,13 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K24">
-        <v>0.7222222222222222</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L24">
         <v>26</v>
@@ -1772,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1780,13 +1822,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4067796610169492</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="C25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1798,19 +1840,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K25">
-        <v>0.7186440677966102</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L25">
-        <v>212</v>
+        <v>22</v>
       </c>
       <c r="M25">
-        <v>212</v>
+        <v>22</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1822,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>83</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1830,13 +1872,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.392156862745098</v>
+        <v>0.4181818181818182</v>
       </c>
       <c r="C26">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D26">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1848,19 +1890,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K26">
-        <v>0.7037037037037037</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L26">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="M26">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1872,7 +1914,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1880,13 +1922,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3766233766233766</v>
+        <v>0.4155844155844156</v>
       </c>
       <c r="C27">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D27">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1898,19 +1940,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K27">
-        <v>0.6976744186046512</v>
+        <v>0.76</v>
       </c>
       <c r="L27">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M27">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1922,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1930,13 +1972,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3111111111111111</v>
+        <v>0.4067796610169492</v>
       </c>
       <c r="C28">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D28">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1948,19 +1990,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K28">
-        <v>0.6882352941176471</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="L28">
-        <v>234</v>
+        <v>34</v>
       </c>
       <c r="M28">
-        <v>234</v>
+        <v>34</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1972,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>106</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1980,13 +2022,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2341269841269841</v>
+        <v>0.4</v>
       </c>
       <c r="C29">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="D29">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1998,19 +2040,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>193</v>
+        <v>54</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K29">
-        <v>0.6741573033707865</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L29">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="M29">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2022,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2030,439 +2072,795 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.09651474530831099</v>
+        <v>0.3898305084745763</v>
       </c>
       <c r="C30">
+        <v>23</v>
+      </c>
+      <c r="D30">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30">
         <v>36</v>
       </c>
-      <c r="D30">
+      <c r="J30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K30">
+        <v>0.7291666666666666</v>
+      </c>
+      <c r="L30">
+        <v>35</v>
+      </c>
+      <c r="M30">
+        <v>35</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30">
+      <c r="B31">
+        <v>0.3650793650793651</v>
+      </c>
+      <c r="C31">
+        <v>69</v>
+      </c>
+      <c r="D31">
+        <v>69</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>120</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K31">
+        <v>0.7254237288135593</v>
+      </c>
+      <c r="L31">
+        <v>214</v>
+      </c>
+      <c r="M31">
+        <v>214</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>0.325</v>
+      </c>
+      <c r="C32">
+        <v>26</v>
+      </c>
+      <c r="D32">
+        <v>26</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>54</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K32">
+        <v>0.7096774193548387</v>
+      </c>
+      <c r="L32">
+        <v>22</v>
+      </c>
+      <c r="M32">
+        <v>22</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <v>0.246031746031746</v>
+      </c>
+      <c r="C33">
+        <v>62</v>
+      </c>
+      <c r="D33">
+        <v>62</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>190</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K33">
+        <v>0.6976744186046512</v>
+      </c>
+      <c r="L33">
+        <v>30</v>
+      </c>
+      <c r="M33">
+        <v>30</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34">
+        <v>0.128686327077748</v>
+      </c>
+      <c r="C34">
+        <v>48</v>
+      </c>
+      <c r="D34">
+        <v>48</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>325</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K34">
+        <v>0.6882352941176471</v>
+      </c>
+      <c r="L34">
+        <v>234</v>
+      </c>
+      <c r="M34">
+        <v>234</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="J35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K35">
+        <v>0.6595744680851063</v>
+      </c>
+      <c r="L35">
+        <v>31</v>
+      </c>
+      <c r="M35">
+        <v>31</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="J36" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K36">
+        <v>0.6569037656903766</v>
+      </c>
+      <c r="L36">
+        <v>157</v>
+      </c>
+      <c r="M36">
+        <v>157</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="J37" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K37">
+        <v>0.6461538461538462</v>
+      </c>
+      <c r="L37">
+        <v>42</v>
+      </c>
+      <c r="M37">
+        <v>42</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="J38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K38">
+        <v>0.6404494382022472</v>
+      </c>
+      <c r="L38">
+        <v>57</v>
+      </c>
+      <c r="M38">
+        <v>57</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="J39" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K39">
+        <v>0.625</v>
+      </c>
+      <c r="L39">
+        <v>25</v>
+      </c>
+      <c r="M39">
+        <v>25</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="J40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K40">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="L40">
+        <v>37</v>
+      </c>
+      <c r="M40">
+        <v>37</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="J41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K41">
+        <v>0.5857142857142857</v>
+      </c>
+      <c r="L41">
+        <v>41</v>
+      </c>
+      <c r="M41">
+        <v>41</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="J42" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K42">
+        <v>0.5753424657534246</v>
+      </c>
+      <c r="L42">
+        <v>42</v>
+      </c>
+      <c r="M42">
+        <v>42</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="J43" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K43">
+        <v>0.575</v>
+      </c>
+      <c r="L43">
+        <v>23</v>
+      </c>
+      <c r="M43">
+        <v>23</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="J44" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K44">
+        <v>0.5625</v>
+      </c>
+      <c r="L44">
+        <v>36</v>
+      </c>
+      <c r="M44">
+        <v>36</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="J45" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K45">
+        <v>0.5428571428571428</v>
+      </c>
+      <c r="L45">
+        <v>19</v>
+      </c>
+      <c r="M45">
+        <v>19</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="J46" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K46">
+        <v>0.5256410256410257</v>
+      </c>
+      <c r="L46">
+        <v>41</v>
+      </c>
+      <c r="M46">
+        <v>41</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="J47" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K47">
+        <v>0.4761904761904762</v>
+      </c>
+      <c r="L47">
+        <v>20</v>
+      </c>
+      <c r="M47">
+        <v>20</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="J48" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K48">
+        <v>0.1937799043062201</v>
+      </c>
+      <c r="L48">
+        <v>81</v>
+      </c>
+      <c r="M48">
+        <v>81</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
         <v>337</v>
       </c>
-      <c r="J30" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K30">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L30">
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K49">
+        <v>0.1355140186915888</v>
+      </c>
+      <c r="L49">
+        <v>29</v>
+      </c>
+      <c r="M49">
         <v>30</v>
       </c>
-      <c r="M30">
-        <v>30</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K31">
-        <v>0.6485355648535565</v>
-      </c>
-      <c r="L31">
-        <v>155</v>
-      </c>
-      <c r="M31">
-        <v>155</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K32">
-        <v>0.5957446808510638</v>
-      </c>
-      <c r="L32">
-        <v>28</v>
-      </c>
-      <c r="M32">
-        <v>28</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="10:17">
-      <c r="J33" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K33">
-        <v>0.5857142857142857</v>
-      </c>
-      <c r="L33">
-        <v>41</v>
-      </c>
-      <c r="M33">
-        <v>41</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="10:17">
-      <c r="J34" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K34">
-        <v>0.5846153846153846</v>
-      </c>
-      <c r="L34">
-        <v>38</v>
-      </c>
-      <c r="M34">
-        <v>38</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
+      <c r="N49">
+        <v>0.97</v>
+      </c>
+      <c r="O49">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K50">
+        <v>0.1322115384615385</v>
+      </c>
+      <c r="L50">
+        <v>55</v>
+      </c>
+      <c r="M50">
+        <v>55</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K51">
+        <v>0.1209302325581395</v>
+      </c>
+      <c r="L51">
+        <v>26</v>
+      </c>
+      <c r="M51">
+        <v>26</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K52">
+        <v>0.06823266219239374</v>
+      </c>
+      <c r="L52">
+        <v>61</v>
+      </c>
+      <c r="M52">
+        <v>61</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K53">
+        <v>0.04772475027746948</v>
+      </c>
+      <c r="L53">
+        <v>43</v>
+      </c>
+      <c r="M53">
+        <v>43</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K54">
+        <v>0.01728971962616822</v>
+      </c>
+      <c r="L54">
+        <v>37</v>
+      </c>
+      <c r="M54">
+        <v>40</v>
+      </c>
+      <c r="N54">
+        <v>0.93</v>
+      </c>
+      <c r="O54">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K55">
+        <v>0.008370895041854474</v>
+      </c>
+      <c r="L55">
+        <v>26</v>
+      </c>
+      <c r="M55">
         <v>27</v>
       </c>
-    </row>
-    <row r="35" spans="10:17">
-      <c r="J35" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K35">
-        <v>0.5757575757575758</v>
-      </c>
-      <c r="L35">
-        <v>19</v>
-      </c>
-      <c r="M35">
-        <v>19</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="10:17">
-      <c r="J36" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K36">
-        <v>0.5753424657534246</v>
-      </c>
-      <c r="L36">
-        <v>42</v>
-      </c>
-      <c r="M36">
-        <v>42</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="10:17">
-      <c r="J37" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K37">
-        <v>0.55</v>
-      </c>
-      <c r="L37">
-        <v>22</v>
-      </c>
-      <c r="M37">
-        <v>22</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="10:17">
-      <c r="J38" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K38">
-        <v>0.5409836065573771</v>
-      </c>
-      <c r="L38">
-        <v>33</v>
-      </c>
-      <c r="M38">
-        <v>33</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="10:17">
-      <c r="J39" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K39">
-        <v>0.5384615384615384</v>
-      </c>
-      <c r="L39">
-        <v>42</v>
-      </c>
-      <c r="M39">
-        <v>42</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="10:17">
-      <c r="J40" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K40">
-        <v>0.4761904761904762</v>
-      </c>
-      <c r="L40">
-        <v>20</v>
-      </c>
-      <c r="M40">
-        <v>20</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="10:17">
-      <c r="J41" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K41">
-        <v>0.475</v>
-      </c>
-      <c r="L41">
-        <v>19</v>
-      </c>
-      <c r="M41">
-        <v>19</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="10:17">
-      <c r="J42" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K42">
-        <v>0.3559322033898305</v>
-      </c>
-      <c r="L42">
-        <v>21</v>
-      </c>
-      <c r="M42">
-        <v>21</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="10:17">
-      <c r="J43" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K43">
-        <v>0.3125</v>
-      </c>
-      <c r="L43">
-        <v>20</v>
-      </c>
-      <c r="M43">
-        <v>20</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="44" spans="10:17">
-      <c r="J44" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K44">
-        <v>0.09375</v>
-      </c>
-      <c r="L44">
-        <v>39</v>
-      </c>
-      <c r="M44">
-        <v>39</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="45" spans="10:17">
-      <c r="J45" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K45">
-        <v>0.04784688995215311</v>
-      </c>
-      <c r="L45">
-        <v>20</v>
-      </c>
-      <c r="M45">
-        <v>20</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>398</v>
+      <c r="N55">
+        <v>0.96</v>
+      </c>
+      <c r="O55">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>3080</v>
       </c>
     </row>
   </sheetData>
